--- a/outputs/2023/metric_full_rel-202305.xlsx
+++ b/outputs/2023/metric_full_rel-202305.xlsx
@@ -397,10 +397,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>33.47</v>
+        <v>28.28</v>
       </c>
       <c r="E2">
-        <v>31.42</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="D3">
-        <v>32.79</v>
+        <v>28.28</v>
       </c>
       <c r="E3">
-        <v>31.56</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="4">
@@ -428,13 +428,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.09</v>
+        <v>0.41</v>
       </c>
       <c r="D4">
-        <v>31.97</v>
+        <v>27.87</v>
       </c>
       <c r="E4">
-        <v>31.83</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="5">
@@ -445,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1.23</v>
+        <v>0.82</v>
       </c>
       <c r="D5">
-        <v>32.38</v>
+        <v>27.87</v>
       </c>
       <c r="E5">
-        <v>31.28</v>
+        <v>20.22</v>
       </c>
     </row>
   </sheetData>
@@ -461,7 +461,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,12 +507,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C2">
@@ -525,21 +525,21 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.08</v>
+        <v>17.39</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C3">
@@ -549,24 +549,24 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15.38</v>
+        <v>17.39</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C4">
@@ -579,21 +579,21 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.08</v>
+        <v>17.39</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C5">
@@ -603,24 +603,24 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>15.38</v>
+        <v>21.74</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C6">
@@ -633,21 +633,21 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G6">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C7">
@@ -660,21 +660,21 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G7">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C8">
@@ -687,21 +687,21 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G8">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C9">
@@ -714,21 +714,21 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G9">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C10">
@@ -741,21 +741,21 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>42.42</v>
+        <v>15.79</v>
       </c>
       <c r="G10">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C11">
@@ -765,24 +765,24 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>39.39</v>
+        <v>15.79</v>
       </c>
       <c r="G11">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C12">
@@ -792,24 +792,24 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>36.36</v>
+        <v>15.79</v>
       </c>
       <c r="G12">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C13">
@@ -819,24 +819,24 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="F13">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G13">
-        <v>24.24</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C14">
@@ -849,21 +849,21 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G14">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C15">
@@ -876,21 +876,21 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G15">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C16">
@@ -903,21 +903,21 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G16">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C17">
@@ -930,21 +930,21 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G17">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C18">
@@ -957,21 +957,21 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C19">
@@ -984,21 +984,21 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C20">
@@ -1011,21 +1011,21 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C21">
@@ -1038,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C22">
@@ -1065,21 +1065,21 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G22">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C23">
@@ -1092,21 +1092,21 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G23">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C24">
@@ -1119,21 +1119,21 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G24">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C25">
@@ -1146,21 +1146,21 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G25">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C26">
@@ -1173,21 +1173,21 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C27">
@@ -1200,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C28">
@@ -1224,24 +1224,24 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>6.06</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C29">
@@ -1254,21 +1254,21 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C30">
@@ -1281,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>54.55</v>
+        <v>16.67</v>
       </c>
       <c r="G30">
-        <v>45.45</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C31">
@@ -1308,21 +1308,21 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>63.64</v>
+        <v>16.67</v>
       </c>
       <c r="G31">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C32">
@@ -1335,21 +1335,21 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G32">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C33">
@@ -1362,21 +1362,21 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G33">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C34">
@@ -1389,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C35">
@@ -1416,21 +1416,21 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C36">
@@ -1443,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C37">
@@ -1470,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C38">
@@ -1497,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G38">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C39">
@@ -1524,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G39">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C40">
@@ -1551,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G40">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C41">
@@ -1578,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G41">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C42">
@@ -1605,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G42">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C43">
@@ -1632,21 +1632,21 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G43">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C44">
@@ -1659,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G44">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C45">
@@ -1686,21 +1686,21 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G45">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C46">
@@ -1713,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G46">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C47">
@@ -1740,21 +1740,21 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>45.45</v>
+        <v>3.33</v>
       </c>
       <c r="G47">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C48">
@@ -1767,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>45.45</v>
+        <v>3.33</v>
       </c>
       <c r="G48">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C49">
@@ -1794,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G49">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C50">
@@ -1821,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G50">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C51">
@@ -1848,21 +1848,21 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G51">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C52">
@@ -1875,21 +1875,21 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G52">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C53">
@@ -1902,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G53">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C54">
@@ -1929,21 +1929,21 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G54">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C55">
@@ -1956,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G55">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C56">
@@ -1983,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G56">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C57">
@@ -2010,21 +2010,21 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G57">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C58">
@@ -2037,21 +2037,21 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>16.67</v>
+        <v>25</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C59">
@@ -2061,24 +2061,24 @@
         <v>3</v>
       </c>
       <c r="E59">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>13.33</v>
+        <v>31.25</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C60">
@@ -2088,24 +2088,24 @@
         <v>4</v>
       </c>
       <c r="E60">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C61">
@@ -2115,24 +2115,24 @@
         <v>5</v>
       </c>
       <c r="E61">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C62">
@@ -2145,21 +2145,21 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G62">
-        <v>2.78</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C63">
@@ -2169,24 +2169,24 @@
         <v>3</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F63">
-        <v>27.78</v>
+        <v>42.31</v>
       </c>
       <c r="G63">
-        <v>2.78</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C64">
@@ -2196,24 +2196,24 @@
         <v>4</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F64">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G64">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C65">
@@ -2223,24 +2223,24 @@
         <v>5</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="F65">
-        <v>27.78</v>
+        <v>42.31</v>
       </c>
       <c r="G65">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C66">
@@ -2253,21 +2253,21 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="G66">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C67">
@@ -2280,21 +2280,21 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="G67">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C68">
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G68">
         <v>54.55</v>
@@ -2316,12 +2316,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C69">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G69">
         <v>54.55</v>
@@ -2343,12 +2343,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C70">
@@ -2361,21 +2361,21 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>31.25</v>
+        <v>20</v>
       </c>
       <c r="G70">
-        <v>56.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C71">
@@ -2388,21 +2388,21 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>31.25</v>
+        <v>20</v>
       </c>
       <c r="G71">
-        <v>56.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C72">
@@ -2415,21 +2415,21 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G72">
-        <v>62.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C73">
@@ -2442,21 +2442,21 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G73">
-        <v>62.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C74">
@@ -2469,21 +2469,21 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>50</v>
+        <v>46.67</v>
       </c>
       <c r="G74">
-        <v>28.85</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C75">
@@ -2496,21 +2496,21 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>51.92</v>
+        <v>50</v>
       </c>
       <c r="G75">
-        <v>26.92</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C76">
@@ -2523,21 +2523,21 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>51.92</v>
+        <v>50</v>
       </c>
       <c r="G76">
-        <v>26.92</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C77">
@@ -2550,21 +2550,21 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G77">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C78">
@@ -2577,21 +2577,21 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>27.27</v>
+        <v>50</v>
       </c>
       <c r="G78">
-        <v>54.55</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C79">
@@ -2604,21 +2604,21 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>27.27</v>
+        <v>50</v>
       </c>
       <c r="G79">
-        <v>54.55</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C80">
@@ -2631,21 +2631,21 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G80">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C81">
@@ -2658,21 +2658,21 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G81">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C82">
@@ -2685,21 +2685,21 @@
         <v>0</v>
       </c>
       <c r="F82">
+        <v>25</v>
+      </c>
+      <c r="G82">
         <v>50</v>
-      </c>
-      <c r="G82">
-        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C83">
@@ -2712,21 +2712,21 @@
         <v>0</v>
       </c>
       <c r="F83">
+        <v>25</v>
+      </c>
+      <c r="G83">
         <v>50</v>
-      </c>
-      <c r="G83">
-        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C84">
@@ -2739,21 +2739,21 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G84">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C85">
@@ -2766,21 +2766,21 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G85">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C86">
@@ -2793,21 +2793,21 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>60</v>
+        <v>30.3</v>
       </c>
       <c r="G86">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C87">
@@ -2820,21 +2820,21 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>56.67</v>
+        <v>30.3</v>
       </c>
       <c r="G87">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C88">
@@ -2844,24 +2844,24 @@
         <v>4</v>
       </c>
       <c r="E88">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G88">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C89">
@@ -2871,24 +2871,24 @@
         <v>5</v>
       </c>
       <c r="E89">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>56.67</v>
+        <v>30.3</v>
       </c>
       <c r="G89">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C90">
@@ -2901,21 +2901,21 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G90">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C91">
@@ -2925,24 +2925,24 @@
         <v>3</v>
       </c>
       <c r="E91">
-        <v>4.55</v>
+        <v>2.7</v>
       </c>
       <c r="F91">
-        <v>27.27</v>
+        <v>2.7</v>
       </c>
       <c r="G91">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C92">
@@ -2952,24 +2952,24 @@
         <v>4</v>
       </c>
       <c r="E92">
-        <v>4.55</v>
+        <v>2.7</v>
       </c>
       <c r="F92">
-        <v>27.27</v>
+        <v>2.7</v>
       </c>
       <c r="G92">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C93">
@@ -2979,24 +2979,24 @@
         <v>5</v>
       </c>
       <c r="E93">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G93">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C94">
@@ -3009,21 +3009,21 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G94">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C95">
@@ -3036,21 +3036,21 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G95">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C96">
@@ -3063,21 +3063,21 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G96">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C97">
@@ -3090,21 +3090,21 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G97">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C98">
@@ -3117,21 +3117,21 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>51.52</v>
+        <v>42.42</v>
       </c>
       <c r="G98">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C99">
@@ -3144,21 +3144,21 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>51.52</v>
+        <v>42.42</v>
       </c>
       <c r="G99">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C100">
@@ -3168,24 +3168,24 @@
         <v>4</v>
       </c>
       <c r="E100">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>48.48</v>
+        <v>42.42</v>
       </c>
       <c r="G100">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C101">
@@ -3195,24 +3195,24 @@
         <v>5</v>
       </c>
       <c r="E101">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>45.45</v>
+        <v>42.42</v>
       </c>
       <c r="G101">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C102">
@@ -3225,21 +3225,21 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C103">
@@ -3252,21 +3252,21 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C104">
@@ -3279,21 +3279,21 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>16.22</v>
+        <v>38.67</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>50.67</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C105">
@@ -3303,24 +3303,24 @@
         <v>5</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F105">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C106">
@@ -3333,21 +3333,21 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G106">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C107">
@@ -3360,21 +3360,21 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G107">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C108">
@@ -3387,21 +3387,21 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G108">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C109">
@@ -3414,442 +3414,10 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G109">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C110">
-        <v>2023</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>33.33</v>
-      </c>
-      <c r="G110">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>2023</v>
-      </c>
-      <c r="D111">
-        <v>3</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>33.33</v>
-      </c>
-      <c r="G111">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C112">
-        <v>2023</v>
-      </c>
-      <c r="D112">
-        <v>4</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>33.33</v>
-      </c>
-      <c r="G112">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C113">
-        <v>2023</v>
-      </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>33.33</v>
-      </c>
-      <c r="G113">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C114">
-        <v>2023</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>7.69</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C115">
-        <v>2023</v>
-      </c>
-      <c r="D115">
-        <v>3</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>7.69</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C116">
-        <v>2023</v>
-      </c>
-      <c r="D116">
-        <v>4</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>7.69</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C117">
-        <v>2023</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>7.69</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C118">
-        <v>2023</v>
-      </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>29.33</v>
-      </c>
-      <c r="G118">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C119">
-        <v>2023</v>
-      </c>
-      <c r="D119">
-        <v>3</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>28</v>
-      </c>
-      <c r="G119">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C120">
-        <v>2023</v>
-      </c>
-      <c r="D120">
-        <v>4</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>29.33</v>
-      </c>
-      <c r="G120">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C121">
-        <v>2023</v>
-      </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>29.33</v>
-      </c>
-      <c r="G121">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C122">
-        <v>2023</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>39.13</v>
-      </c>
-      <c r="G122">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C123">
-        <v>2023</v>
-      </c>
-      <c r="D123">
-        <v>3</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>39.13</v>
-      </c>
-      <c r="G123">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C124">
-        <v>2023</v>
-      </c>
-      <c r="D124">
-        <v>4</v>
-      </c>
-      <c r="E124">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F124">
-        <v>30.43</v>
-      </c>
-      <c r="G124">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C125">
-        <v>2023</v>
-      </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-      <c r="E125">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F125">
-        <v>30.43</v>
-      </c>
-      <c r="G125">
-        <v>13.04</v>
+        <v>4.35</v>
       </c>
     </row>
   </sheetData>
@@ -3913,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F2">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="3">
@@ -3935,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F3">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="4">
@@ -3957,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F4">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="5">
@@ -3979,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.67</v>
+        <v>17.78</v>
       </c>
       <c r="F5">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -4001,10 +3569,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33.93</v>
+        <v>29.46</v>
       </c>
       <c r="F6">
-        <v>40.18</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="7">
@@ -4020,13 +3588,13 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>33.04</v>
+        <v>30.36</v>
       </c>
       <c r="F7">
-        <v>40.18</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="8">
@@ -4042,13 +3610,13 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>28.57</v>
+        <v>26.79</v>
       </c>
       <c r="F8">
-        <v>43.75</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="9">
@@ -4064,13 +3632,13 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E9">
+        <v>27.68</v>
+      </c>
+      <c r="F9">
         <v>29.46</v>
-      </c>
-      <c r="F9">
-        <v>43.75</v>
       </c>
     </row>
   </sheetData>
